--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>11.64606308563521</v>
+        <v>64.06511179144846</v>
       </c>
       <c r="R2">
-        <v>11.64606308563521</v>
+        <v>576.586006123036</v>
       </c>
       <c r="S2">
-        <v>0.00035230372164672</v>
+        <v>0.001293284573264883</v>
       </c>
       <c r="T2">
-        <v>0.00035230372164672</v>
+        <v>0.001431374155594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>101.57544883545</v>
+        <v>421.9095241036161</v>
       </c>
       <c r="R3">
-        <v>101.57544883545</v>
+        <v>3797.185716932545</v>
       </c>
       <c r="S3">
-        <v>0.003072747278589312</v>
+        <v>0.008517101798136088</v>
       </c>
       <c r="T3">
-        <v>0.003072747278589312</v>
+        <v>0.00942650956056696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>82.90882484753382</v>
+        <v>354.3242458622285</v>
       </c>
       <c r="R4">
-        <v>82.90882484753382</v>
+        <v>3188.918212760056</v>
       </c>
       <c r="S4">
-        <v>0.002508065372509448</v>
+        <v>0.007152755505977292</v>
       </c>
       <c r="T4">
-        <v>0.002508065372509448</v>
+        <v>0.007916486119286322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>91.57479320817674</v>
+        <v>364.7651542093876</v>
       </c>
       <c r="R5">
-        <v>91.57479320817674</v>
+        <v>3282.886387884488</v>
       </c>
       <c r="S5">
-        <v>0.0027702185896677</v>
+        <v>0.00736352647505341</v>
       </c>
       <c r="T5">
-        <v>0.0027702185896677</v>
+        <v>0.008149762015497965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>36.0944796686275</v>
+        <v>156.4921383936202</v>
       </c>
       <c r="R6">
-        <v>36.0944796686275</v>
+        <v>938.952830361721</v>
       </c>
       <c r="S6">
-        <v>0.001091889973861133</v>
+        <v>0.003159112077733351</v>
       </c>
       <c r="T6">
-        <v>0.001091889973861133</v>
+        <v>0.00233094941678972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>1069.751420040776</v>
+        <v>1842.309139809522</v>
       </c>
       <c r="R7">
-        <v>1069.751420040776</v>
+        <v>16580.7822582857</v>
       </c>
       <c r="S7">
-        <v>0.03236092778701213</v>
+        <v>0.03719075676409872</v>
       </c>
       <c r="T7">
-        <v>0.03236092778701213</v>
+        <v>0.04116177456963339</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>9330.232872173656</v>
+        <v>12132.77789882093</v>
       </c>
       <c r="R8">
-        <v>9330.232872173656</v>
+        <v>109195.0010893884</v>
       </c>
       <c r="S8">
-        <v>0.2822478068791998</v>
+        <v>0.2449247967985083</v>
       </c>
       <c r="T8">
-        <v>0.2822478068791998</v>
+        <v>0.2710764757028408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>7615.606446779238</v>
+        <v>10189.23995220802</v>
       </c>
       <c r="R9">
-        <v>7615.606446779238</v>
+        <v>91703.15956987219</v>
       </c>
       <c r="S9">
-        <v>0.2303788391036987</v>
+        <v>0.2056905306960508</v>
       </c>
       <c r="T9">
-        <v>0.2303788391036987</v>
+        <v>0.2276529974725369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>8411.620678512258</v>
+        <v>10489.48731521118</v>
       </c>
       <c r="R10">
-        <v>8411.620678512258</v>
+        <v>94405.38583690059</v>
       </c>
       <c r="S10">
-        <v>0.2544589745332588</v>
+        <v>0.2117516343432198</v>
       </c>
       <c r="T10">
-        <v>0.2544589745332588</v>
+        <v>0.2343612713468881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>3315.465543783042</v>
+        <v>4500.216870134096</v>
       </c>
       <c r="R11">
-        <v>3315.465543783042</v>
+        <v>27001.30122080457</v>
       </c>
       <c r="S11">
-        <v>0.1002957687484073</v>
+        <v>0.09084602979289075</v>
       </c>
       <c r="T11">
-        <v>0.1002957687484073</v>
+        <v>0.06703070196716011</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>107.5556201868939</v>
+        <v>0.9275999559551112</v>
       </c>
       <c r="R12">
-        <v>107.5556201868939</v>
+        <v>8.348399603596</v>
       </c>
       <c r="S12">
-        <v>0.003253652757780594</v>
+        <v>1.872549160771249E-05</v>
       </c>
       <c r="T12">
-        <v>0.003253652757780594</v>
+        <v>2.072489326181912E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H13">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I13">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J13">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>938.0861424951701</v>
+        <v>6.108835917582778</v>
       </c>
       <c r="R13">
-        <v>938.0861424951701</v>
+        <v>54.979523258245</v>
       </c>
       <c r="S13">
-        <v>0.02837793654354378</v>
+        <v>0.0001233192767778922</v>
       </c>
       <c r="T13">
-        <v>0.02837793654354378</v>
+        <v>0.0001364866088372224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H14">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I14">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J14">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>765.6930938698137</v>
+        <v>5.130267405535111</v>
       </c>
       <c r="R14">
-        <v>765.6930938698137</v>
+        <v>46.172406649816</v>
       </c>
       <c r="S14">
-        <v>0.02316289415796285</v>
+        <v>0.0001035648812086808</v>
       </c>
       <c r="T14">
-        <v>0.02316289415796285</v>
+        <v>0.0001146229510919147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H15">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I15">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J15">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>845.7264574790672</v>
+        <v>5.281441513440889</v>
       </c>
       <c r="R15">
-        <v>845.7264574790672</v>
+        <v>47.532973620968</v>
       </c>
       <c r="S15">
-        <v>0.02558397428161627</v>
+        <v>0.0001066166380255279</v>
       </c>
       <c r="T15">
-        <v>0.02558397428161627</v>
+        <v>0.0001180005571711129</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.0983795</v>
+      </c>
+      <c r="N16">
+        <v>52.196759</v>
+      </c>
+      <c r="O16">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P16">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q16">
+        <v>2.265852608730167</v>
+      </c>
+      <c r="R16">
+        <v>13.595115652381</v>
+      </c>
+      <c r="S16">
+        <v>4.574084306138479E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.374986035123644E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N17">
+        <v>32.052644</v>
+      </c>
+      <c r="O17">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P17">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q17">
+        <v>0.6462738995671111</v>
+      </c>
+      <c r="R17">
+        <v>5.816465096103999</v>
+      </c>
+      <c r="S17">
+        <v>1.304635301558078E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.443936850194952E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N18">
+        <v>211.087055</v>
+      </c>
+      <c r="O18">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P18">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q18">
+        <v>4.256124835847777</v>
+      </c>
+      <c r="R18">
+        <v>38.30512352263</v>
+      </c>
+      <c r="S18">
+        <v>8.591853566118651E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.5092428978286E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.273224</v>
+      </c>
+      <c r="O19">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P19">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q19">
+        <v>3.574340318487111</v>
+      </c>
+      <c r="R19">
+        <v>32.169062866384</v>
+      </c>
+      <c r="S19">
+        <v>7.215532860609336E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.985966483341098E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N20">
+        <v>182.496952</v>
+      </c>
+      <c r="O20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q20">
+        <v>3.679665765736889</v>
+      </c>
+      <c r="R20">
+        <v>33.116991891632</v>
+      </c>
+      <c r="S20">
+        <v>7.428153696336254E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.221289764459345E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>1.578656178115666</v>
+      </c>
+      <c r="R21">
+        <v>9.471937068693999</v>
+      </c>
+      <c r="S21">
+        <v>3.186838553084075E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.351407384078674E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>422.8975259603553</v>
+      </c>
+      <c r="R22">
+        <v>2537.385155762132</v>
+      </c>
+      <c r="S22">
+        <v>0.008537046624952867</v>
+      </c>
+      <c r="T22">
+        <v>0.006299055988484675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>2785.049287096485</v>
+      </c>
+      <c r="R23">
+        <v>16710.29572257891</v>
+      </c>
+      <c r="S23">
+        <v>0.05622188392505123</v>
+      </c>
+      <c r="T23">
+        <v>0.04148329160893385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q16">
-        <v>333.3456222533175</v>
-      </c>
-      <c r="R16">
-        <v>333.3456222533175</v>
-      </c>
-      <c r="S16">
-        <v>0.01008400027124531</v>
-      </c>
-      <c r="T16">
-        <v>0.01008400027124531</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>2338.914937832145</v>
+      </c>
+      <c r="R24">
+        <v>14033.48962699287</v>
+      </c>
+      <c r="S24">
+        <v>0.04721575476405981</v>
+      </c>
+      <c r="T24">
+        <v>0.03483812328353272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>2407.835980585742</v>
+      </c>
+      <c r="R25">
+        <v>14447.01588351445</v>
+      </c>
+      <c r="S25">
+        <v>0.04860706617949474</v>
+      </c>
+      <c r="T25">
+        <v>0.0358647017817251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>1033.013699786307</v>
+      </c>
+      <c r="R26">
+        <v>4132.054799145227</v>
+      </c>
+      <c r="S26">
+        <v>0.02085348241104984</v>
+      </c>
+      <c r="T26">
+        <v>0.01025782170601718</v>
       </c>
     </row>
   </sheetData>
